--- a/Sparrow_V101LF_WASH_DRY_BOM.xlsx
+++ b/Sparrow_V101LF_WASH_DRY_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollock\Documents\Repo\hardware_dev_df\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B2876C-0178-4188-8D98-0C9909BDD572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D90C14-EA90-47C2-B8E7-FC63CE31AD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2070" windowWidth="29040" windowHeight="15840" xr2:uid="{6BB6B917-AF56-4B92-AD82-C7250C129153}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>Qty</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>22 uF/10V (20%)</t>
-  </si>
-  <si>
-    <t>1206</t>
   </si>
   <si>
     <t>Capacitor</t>
@@ -253,9 +250,6 @@
     <t>MOSFET N-CH </t>
   </si>
   <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
     <t>N-Channel 50V 220mA (Ta) 360mW (Ta) Surface Mount SOT-23-3</t>
   </si>
   <si>
@@ -281,6 +275,12 @@
   </si>
   <si>
     <t>Sparrow BOMList(V1.0.1 LF) WASHING/DRYING</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
   </si>
 </sst>
 </file>
@@ -535,6 +535,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,15 +553,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -871,7 +871,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,23 +888,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
@@ -932,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -951,16 +951,16 @@
         <v>7</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="9"/>
     </row>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
         <v>4</v>
@@ -977,19 +977,19 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="8">
         <v>5</v>
@@ -1006,19 +1006,19 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>14</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1035,19 +1035,19 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="9"/>
     </row>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1064,10 +1064,10 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1077,7 +1077,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1085,7 +1085,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="9">
         <v>6</v>
@@ -1106,19 +1106,19 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="9"/>
     </row>
@@ -1127,31 +1127,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="K10" s="9"/>
     </row>
@@ -1160,29 +1160,29 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>26</v>
       </c>
       <c r="K11" s="8"/>
     </row>
@@ -1191,34 +1191,34 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="I12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1226,31 +1226,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="K13" s="9"/>
     </row>
@@ -1259,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -1267,22 +1267,22 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1290,94 +1290,96 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>51</v>
-      </c>
       <c r="H15" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>69</v>
+      <c r="B16" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="41" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="43"/>
+      <c r="I16" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="21">
         <v>2</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>70</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1449,7 +1451,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
